--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11069</x:v>
+        <x:v>11073</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4518</x:v>
@@ -516,7 +516,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>30</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23668</x:v>
+        <x:v>23673</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11576</x:v>
+        <x:v>11580</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4839</x:v>
@@ -574,7 +574,7 @@
         <x:v>370</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1424</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>34</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24782</x:v>
+        <x:v>24787</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,10 +507,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11073</x:v>
+        <x:v>11076</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4518</x:v>
+        <x:v>4520</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>350</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23673</x:v>
+        <x:v>23678</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -539,7 +539,7 @@
         <x:v>507</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>20</x:v>
@@ -554,7 +554,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1115</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -565,10 +565,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11580</x:v>
+        <x:v>11583</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4839</x:v>
+        <x:v>4842</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>370</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24787</x:v>
+        <x:v>24793</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -841,10 +841,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1998</x:v>
+        <x:v>1999</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14803</x:v>
+        <x:v>14804</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -899,10 +899,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14969</x:v>
+        <x:v>14970</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11076</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4520</x:v>
+        <x:v>4519</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>350</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23678</x:v>
+        <x:v>23677</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11583</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4842</x:v>
+        <x:v>4841</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>370</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24793</x:v>
+        <x:v>24792</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -768,7 +768,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>285</x:v>
@@ -786,7 +786,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -797,7 +797,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2256</x:v>
+        <x:v>2257</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>1252</x:v>
@@ -815,7 +815,7 @@
         <x:v>603</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4427</x:v>
+        <x:v>4428</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,13 +507,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11076</x:v>
+        <x:v>11077</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4519</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1379</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23677</x:v>
+        <x:v>23679</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,13 +565,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11583</x:v>
+        <x:v>11584</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4841</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1425</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24792</x:v>
+        <x:v>24794</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -1238,7 +1238,7 @@
         <x:v>1291</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>303</x:v>
@@ -1250,7 +1250,7 @@
         <x:v>659</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>3999</x:v>
+        <x:v>3998</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1296,7 +1296,7 @@
         <x:v>1380</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
         <x:v>308</x:v>
@@ -1308,7 +1308,7 @@
         <x:v>673</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>4203</x:v>
+        <x:v>4202</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -841,10 +841,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1999</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14804</x:v>
+        <x:v>14805</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -899,10 +899,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14970</x:v>
+        <x:v>14971</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11077</x:v>
+        <x:v>11076</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4519</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23679</x:v>
+        <x:v>23678</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11584</x:v>
+        <x:v>11583</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4841</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24794</x:v>
+        <x:v>24793</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11076</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4519</x:v>
+        <x:v>4520</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23678</x:v>
+        <x:v>23679</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11583</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4841</x:v>
+        <x:v>4842</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24793</x:v>
+        <x:v>24794</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -971,7 +971,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>42</x:v>
@@ -989,7 +989,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1029,7 +1029,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>42</x:v>
@@ -1047,7 +1047,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11076</x:v>
+        <x:v>11077</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4520</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23679</x:v>
+        <x:v>23680</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11583</x:v>
+        <x:v>11584</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4842</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24794</x:v>
+        <x:v>24795</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,10 +507,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11077</x:v>
+        <x:v>11084</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4520</x:v>
+        <x:v>4522</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23680</x:v>
+        <x:v>23689</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,10 +565,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11584</x:v>
+        <x:v>11591</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4842</x:v>
+        <x:v>4844</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24795</x:v>
+        <x:v>24804</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11084</x:v>
+        <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4522</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23689</x:v>
+        <x:v>23697</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11591</x:v>
+        <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4844</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24804</x:v>
+        <x:v>24812</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,13 +510,13 @@
         <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4522</x:v>
+        <x:v>4521</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>30</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23697</x:v>
+        <x:v>23695</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,13 +568,13 @@
         <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4844</x:v>
+        <x:v>4843</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1425</x:v>
+        <x:v>1424</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>34</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24812</x:v>
+        <x:v>24810</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -742,7 +742,7 @@
         <x:v>1941</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>59</x:v>
@@ -757,7 +757,7 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3636</x:v>
+        <x:v>3635</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -800,7 +800,7 @@
         <x:v>2257</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>71</x:v>
@@ -815,7 +815,7 @@
         <x:v>603</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4428</x:v>
+        <x:v>4427</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -829,7 +829,7 @@
         <x:v>10057</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1803</x:v>
+        <x:v>1802</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>421</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14805</x:v>
+        <x:v>14804</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -887,7 +887,7 @@
         <x:v>10159</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1809</x:v>
+        <x:v>1808</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>423</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14971</x:v>
+        <x:v>14970</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1261,7 +1261,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>89</x:v>
@@ -1279,7 +1279,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1290,7 +1290,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>1749</x:v>
+        <x:v>1748</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>1380</x:v>
@@ -1308,7 +1308,7 @@
         <x:v>673</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>4202</x:v>
+        <x:v>4201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11092</x:v>
+        <x:v>11091</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4521</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23695</x:v>
+        <x:v>23694</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11599</x:v>
+        <x:v>11598</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4843</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24810</x:v>
+        <x:v>24809</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -829,7 +829,7 @@
         <x:v>10057</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1802</x:v>
+        <x:v>1803</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>421</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14804</x:v>
+        <x:v>14805</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -887,7 +887,7 @@
         <x:v>10159</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1808</x:v>
+        <x:v>1809</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>423</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14970</x:v>
+        <x:v>14971</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1058,7 +1058,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1625</x:v>
+        <x:v>1626</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
@@ -1076,7 +1076,7 @@
         <x:v>666</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2729</x:v>
+        <x:v>2730</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1116,7 +1116,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>2151</x:v>
+        <x:v>2152</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>354</x:v>
@@ -1134,7 +1134,7 @@
         <x:v>899</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>3571</x:v>
+        <x:v>3572</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -826,7 +826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10057</x:v>
+        <x:v>10058</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1803</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14805</x:v>
+        <x:v>14806</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,7 +884,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10159</x:v>
+        <x:v>10160</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1809</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14971</x:v>
+        <x:v>14972</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1232,7 +1232,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>1654</x:v>
+        <x:v>1653</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>1291</x:v>
@@ -1241,7 +1241,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>7</x:v>
@@ -1290,7 +1290,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>1748</x:v>
+        <x:v>1747</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>1380</x:v>
@@ -1299,7 +1299,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>7</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11091</x:v>
+        <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4521</x:v>
@@ -519,7 +519,7 @@
         <x:v>1378</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>6323</x:v>
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11598</x:v>
+        <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4843</x:v>
@@ -577,7 +577,7 @@
         <x:v>1424</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>6539</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -519,13 +519,13 @@
         <x:v>1378</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23694</x:v>
+        <x:v>23695</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -577,13 +577,13 @@
         <x:v>1424</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24809</x:v>
+        <x:v>24810</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4521</x:v>
+        <x:v>4520</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23695</x:v>
+        <x:v>23694</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4843</x:v>
+        <x:v>4842</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24810</x:v>
+        <x:v>24809</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,10 +507,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11092</x:v>
+        <x:v>11093</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4520</x:v>
+        <x:v>4519</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -565,10 +565,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11599</x:v>
+        <x:v>11600</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4842</x:v>
+        <x:v>4841</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -1145,7 +1145,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>3</x:v>
@@ -1163,7 +1163,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1203,7 +1203,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>3</x:v>
@@ -1221,7 +1221,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11093</x:v>
+        <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4519</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23694</x:v>
+        <x:v>23693</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11600</x:v>
+        <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4841</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24809</x:v>
+        <x:v>24808</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4519</x:v>
+        <x:v>4518</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23693</x:v>
+        <x:v>23692</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4841</x:v>
+        <x:v>4840</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24808</x:v>
+        <x:v>24807</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -829,7 +829,7 @@
         <x:v>10058</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1803</x:v>
+        <x:v>1802</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>421</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14806</x:v>
+        <x:v>14805</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -887,7 +887,7 @@
         <x:v>10160</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1809</x:v>
+        <x:v>1808</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>423</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14972</x:v>
+        <x:v>14971</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -826,7 +826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10058</x:v>
+        <x:v>10057</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1802</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14805</x:v>
+        <x:v>14804</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,7 +884,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10160</x:v>
+        <x:v>10159</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1808</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14971</x:v>
+        <x:v>14970</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11092</x:v>
+        <x:v>11093</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4518</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23692</x:v>
+        <x:v>23693</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11599</x:v>
+        <x:v>11600</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4840</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24807</x:v>
+        <x:v>24808</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11093</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4518</x:v>
+        <x:v>4519</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23693</x:v>
+        <x:v>23694</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11600</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4840</x:v>
+        <x:v>4841</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24808</x:v>
+        <x:v>24809</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -516,7 +516,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>30</x:v>
@@ -525,7 +525,7 @@
         <x:v>6323</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23694</x:v>
+        <x:v>23695</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -574,7 +574,7 @@
         <x:v>371</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1424</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>34</x:v>
@@ -583,7 +583,7 @@
         <x:v>6539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24809</x:v>
+        <x:v>24810</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -835,7 +835,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>25</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14804</x:v>
+        <x:v>14805</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -893,7 +893,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>25</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14970</x:v>
+        <x:v>14971</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -510,7 +510,7 @@
         <x:v>11093</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4519</x:v>
+        <x:v>4520</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>351</x:v>
@@ -522,10 +522,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6323</x:v>
+        <x:v>6324</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23695</x:v>
+        <x:v>23697</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -568,7 +568,7 @@
         <x:v>11600</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4841</x:v>
+        <x:v>4842</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>371</x:v>
@@ -580,10 +580,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6539</x:v>
+        <x:v>6540</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24810</x:v>
+        <x:v>24812</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -739,16 +739,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1941</x:v>
+        <x:v>1937</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>966</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>11</x:v>
@@ -757,7 +757,7 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3635</x:v>
+        <x:v>3628</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -768,7 +768,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>285</x:v>
@@ -786,7 +786,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>792</x:v>
+        <x:v>791</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -797,16 +797,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2257</x:v>
+        <x:v>2252</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1249</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>71</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>11</x:v>
@@ -815,7 +815,7 @@
         <x:v>603</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>4427</x:v>
+        <x:v>4419</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -826,10 +826,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10057</x:v>
+        <x:v>10065</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1802</x:v>
+        <x:v>1803</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>421</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14805</x:v>
+        <x:v>14814</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,10 +884,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10159</x:v>
+        <x:v>10167</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>1808</x:v>
+        <x:v>1809</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>423</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14971</x:v>
+        <x:v>14980</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1058,7 +1058,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1626</x:v>
+        <x:v>1627</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>313</x:v>
@@ -1076,7 +1076,7 @@
         <x:v>666</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2730</x:v>
+        <x:v>2731</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1116,7 +1116,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>2152</x:v>
+        <x:v>2153</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>354</x:v>
@@ -1134,7 +1134,7 @@
         <x:v>899</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>3572</x:v>
+        <x:v>3573</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1232,7 +1232,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>1653</x:v>
+        <x:v>1652</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>1291</x:v>
@@ -1241,7 +1241,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>7</x:v>
@@ -1250,7 +1250,7 @@
         <x:v>659</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>3998</x:v>
+        <x:v>3996</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1290,7 +1290,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>1747</x:v>
+        <x:v>1746</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>1380</x:v>
@@ -1299,7 +1299,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>7</x:v>
@@ -1308,7 +1308,7 @@
         <x:v>673</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>4201</x:v>
+        <x:v>4199</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -826,7 +826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10065</x:v>
+        <x:v>10066</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1803</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14814</x:v>
+        <x:v>14815</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,7 +884,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10167</x:v>
+        <x:v>10168</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1809</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14980</x:v>
+        <x:v>14981</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -507,7 +507,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>11093</x:v>
+        <x:v>11092</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4520</x:v>
@@ -522,7 +522,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6324</x:v>
+        <x:v>6325</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
         <x:v>23697</x:v>
@@ -565,7 +565,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>11600</x:v>
+        <x:v>11599</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4842</x:v>
@@ -580,7 +580,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6540</x:v>
+        <x:v>6541</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
         <x:v>24812</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -826,7 +826,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>10066</x:v>
+        <x:v>10067</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1803</x:v>
@@ -844,7 +844,7 @@
         <x:v>2000</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>14815</x:v>
+        <x:v>14816</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -884,7 +884,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>10168</x:v>
+        <x:v>10169</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>1809</x:v>
@@ -902,7 +902,7 @@
         <x:v>2052</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>14981</x:v>
+        <x:v>14982</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -522,10 +522,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6325</x:v>
+        <x:v>6327</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>23697</x:v>
+        <x:v>23699</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -580,10 +580,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>6541</x:v>
+        <x:v>6543</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>24812</x:v>
+        <x:v>24814</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -49,361 +49,364 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>11093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4520</x:t>
+    <x:t>11089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4519</x:t>
   </x:si>
   <x:si>
     <x:t>351</x:t>
   </x:si>
   <x:si>
+    <x:t>1374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juvenile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bad Checks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>964</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drunkenness</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Peeping Tom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1746</x:t>
+  </x:si>
+  <x:si>
     <x:t>1379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juvenile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bad Checks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1937</x:t>
-  </x:si>
-  <x:si>
-    <x:t>964</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1249</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1803</x:t>
-  </x:si>
-  <x:si>
-    <x:t>421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drunkenness</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peeping Tom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1652</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1746</x:t>
   </x:si>
   <x:si>
     <x:t>85</x:t>
@@ -1310,7 +1313,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>98</x:v>
@@ -1368,7 +1371,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>98</x:v>
@@ -1629,22 +1632,22 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I29" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>11089</x:t>
+    <x:t>11091</x:t>
   </x:si>
   <x:si>
     <x:t>4519</x:t>
@@ -67,7 +67,7 @@
     <x:t>6327</x:t>
   </x:si>
   <x:si>
-    <x:t>23690</x:t>
+    <x:t>23692</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11596</x:t>
+    <x:t>11598</x:t>
   </x:si>
   <x:si>
     <x:t>4841</x:t>
@@ -115,7 +115,7 @@
     <x:t>6543</x:t>
   </x:si>
   <x:si>
-    <x:t>24805</x:t>
+    <x:t>24807</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -250,7 +250,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10067</x:t>
+    <x:t>10068</x:t>
   </x:si>
   <x:si>
     <x:t>1803</x:t>
@@ -268,7 +268,7 @@
     <x:t>2000</x:t>
   </x:si>
   <x:si>
-    <x:t>14816</x:t>
+    <x:t>14817</x:t>
   </x:si>
   <x:si>
     <x:t>102</x:t>
@@ -280,7 +280,7 @@
     <x:t>166</x:t>
   </x:si>
   <x:si>
-    <x:t>10169</x:t>
+    <x:t>10170</x:t>
   </x:si>
   <x:si>
     <x:t>1809</x:t>
@@ -292,7 +292,7 @@
     <x:t>2052</x:t>
   </x:si>
   <x:si>
-    <x:t>14982</x:t>
+    <x:t>14983</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -265,10 +265,10 @@
     <x:t>25</x:t>
   </x:si>
   <x:si>
-    <x:t>2000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14817</x:t>
+    <x:t>1999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14816</x:t>
   </x:si>
   <x:si>
     <x:t>102</x:t>
@@ -289,10 +289,10 @@
     <x:t>423</x:t>
   </x:si>
   <x:si>
-    <x:t>2052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14983</x:t>
+    <x:t>2051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14982</x:t>
   </x:si>
   <x:si>
     <x:t>Drunkenness</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>11091</x:t>
+    <x:t>11090</x:t>
   </x:si>
   <x:si>
     <x:t>4519</x:t>
@@ -67,7 +67,7 @@
     <x:t>6327</x:t>
   </x:si>
   <x:si>
-    <x:t>23692</x:t>
+    <x:t>23691</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11598</x:t>
+    <x:t>11597</x:t>
   </x:si>
   <x:si>
     <x:t>4841</x:t>
@@ -115,7 +115,7 @@
     <x:t>6543</x:t>
   </x:si>
   <x:si>
-    <x:t>24807</x:t>
+    <x:t>24806</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -196,7 +196,7 @@
     <x:t>1937</x:t>
   </x:si>
   <x:si>
-    <x:t>964</x:t>
+    <x:t>963</x:t>
   </x:si>
   <x:si>
     <x:t>59</x:t>
@@ -208,7 +208,7 @@
     <x:t>465</x:t>
   </x:si>
   <x:si>
-    <x:t>3628</x:t>
+    <x:t>3627</x:t>
   </x:si>
   <x:si>
     <x:t>315</x:t>
@@ -232,7 +232,7 @@
     <x:t>2252</x:t>
   </x:si>
   <x:si>
-    <x:t>1249</x:t>
+    <x:t>1248</x:t>
   </x:si>
   <x:si>
     <x:t>71</x:t>
@@ -244,7 +244,7 @@
     <x:t>603</x:t>
   </x:si>
   <x:si>
-    <x:t>4419</x:t>
+    <x:t>4418</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -52,7 +52,7 @@
     <x:t>11090</x:t>
   </x:si>
   <x:si>
-    <x:t>4519</x:t>
+    <x:t>4520</x:t>
   </x:si>
   <x:si>
     <x:t>351</x:t>
@@ -67,7 +67,7 @@
     <x:t>6327</x:t>
   </x:si>
   <x:si>
-    <x:t>23691</x:t>
+    <x:t>23692</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,7 +100,7 @@
     <x:t>11597</x:t>
   </x:si>
   <x:si>
-    <x:t>4841</x:t>
+    <x:t>4842</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -115,7 +115,7 @@
     <x:t>6543</x:t>
   </x:si>
   <x:si>
-    <x:t>24806</x:t>
+    <x:t>24807</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>11090</x:t>
+    <x:t>11091</x:t>
   </x:si>
   <x:si>
     <x:t>4520</x:t>
@@ -67,7 +67,7 @@
     <x:t>6327</x:t>
   </x:si>
   <x:si>
-    <x:t>23692</x:t>
+    <x:t>23693</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11597</x:t>
+    <x:t>11598</x:t>
   </x:si>
   <x:si>
     <x:t>4842</x:t>
@@ -115,7 +115,7 @@
     <x:t>6543</x:t>
   </x:si>
   <x:si>
-    <x:t>24807</x:t>
+    <x:t>24808</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2021.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>11091</x:t>
+    <x:t>11092</x:t>
   </x:si>
   <x:si>
     <x:t>4520</x:t>
@@ -67,7 +67,7 @@
     <x:t>6327</x:t>
   </x:si>
   <x:si>
-    <x:t>23693</x:t>
+    <x:t>23694</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11598</x:t>
+    <x:t>11599</x:t>
   </x:si>
   <x:si>
     <x:t>4842</x:t>
@@ -115,7 +115,7 @@
     <x:t>6543</x:t>
   </x:si>
   <x:si>
-    <x:t>24808</x:t>
+    <x:t>24809</x:t>
   </x:si>
   <x:si>
     <x:t>Bad Checks</x:t>
@@ -391,19 +391,16 @@
     <x:t>3996</x:t>
   </x:si>
   <x:si>
-    <x:t>94</x:t>
+    <x:t>93</x:t>
   </x:si>
   <x:si>
     <x:t>88</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
     <x:t>202</x:t>
   </x:si>
   <x:si>
-    <x:t>1746</x:t>
+    <x:t>1745</x:t>
   </x:si>
   <x:si>
     <x:t>1379</x:t>
@@ -412,7 +409,7 @@
     <x:t>85</x:t>
   </x:si>
   <x:si>
-    <x:t>308</x:t>
+    <x:t>309</x:t>
   </x:si>
   <x:si>
     <x:t>673</x:t>
@@ -1609,7 +1606,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G28" s="1" t="s">
         <x:v>39</x:v>
@@ -1618,7 +1615,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I28" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1629,25 +1626,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="E29" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
+      <x:c r="F29" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="F29" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="G29" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="H29" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="I29" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="I29" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
